--- a/tests/testthat/helper_varueInfo.xlsx
+++ b/tests/testthat/helper_varueInfo.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t xml:space="preserve">Var.Name</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t xml:space="preserve">Variable 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
   </si>
   <si>
     <t xml:space="preserve">nein</t>
@@ -482,7 +485,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -494,7 +497,7 @@
         <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
@@ -503,7 +506,7 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
         <v>18</v>
@@ -515,12 +518,12 @@
         <v>18</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -529,7 +532,7 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -541,10 +544,10 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
         <v>18</v>
@@ -553,7 +556,7 @@
         <v>18</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M3" t="s">
         <v>18</v>
@@ -565,12 +568,12 @@
         <v>18</v>
       </c>
       <c r="P3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -579,7 +582,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -591,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
         <v>18</v>
@@ -603,7 +606,7 @@
         <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M4" t="s">
         <v>18</v>
@@ -615,7 +618,7 @@
         <v>18</v>
       </c>
       <c r="P4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
